--- a/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
+++ b/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEIVISON VENICIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E647D5-DADF-48B6-BFE5-4C0CFA463EF4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t xml:space="preserve">Disciplina: </t>
   </si>
   <si>
-    <t>Inventário Amostral</t>
-  </si>
-  <si>
     <t>Tema:</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>Intensidade Amostral (1º Recálculo)</t>
+  </si>
+  <si>
+    <t>Inventário Florestal</t>
   </si>
 </sst>
 </file>
@@ -807,6 +807,15 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,15 +823,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1354,7 @@
   <dimension ref="B1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1383,7 +1383,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="35"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D3" s="38"/>
       <c r="F3" s="7"/>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="4" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="41"/>
     </row>
@@ -1428,23 +1428,23 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
+      <c r="J6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="J6" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
@@ -1824,11 +1824,11 @@
         <f t="shared" si="0"/>
         <v>480.66666666666669</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
+      <c r="F17" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="J17" s="20" t="s">
         <v>25</v>
       </c>
@@ -1899,11 +1899,11 @@
         <f t="shared" si="0"/>
         <v>413.00000000000006</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="F19" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
       <c r="J19" s="20" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>376.33333333333331</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7">
         <f>K17</f>
@@ -1973,7 +1973,7 @@
         <v>395</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="12">
         <f>IFERROR(ROUND(G$20,0)-1,0)</f>
@@ -2052,7 +2052,7 @@
         <v>297.16666666666669</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="7">
         <f>IFERROR(TINV(G$22,G$21),0)</f>
@@ -2087,7 +2087,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="F24" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="6">
         <f>IFERROR(IF(K$14="População Finita", (K$12*(G$23^2)*K$9)/((K$12*(K$15^2))+((G$23^2)*K$9)),((G$23^2)*K$9)/(K$15^2)),0)</f>
@@ -2122,7 +2122,7 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="F25" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="12" t="str">
         <f>IF(ROUND(G$20,0)=ROUND(G$24,0),"Intensidade Amostral Constante","Intensidade Amostral Não Constante")</f>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
-      <c r="F26" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
+      <c r="F26" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2172,7 +2172,7 @@
       <c r="C27" s="42"/>
       <c r="D27" s="43"/>
       <c r="F27" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="23" t="s">
@@ -2200,7 +2200,7 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="F29" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="23" t="s">
@@ -2214,7 +2214,7 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="F30" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="23" t="s">
@@ -2228,7 +2228,7 @@
       <c r="C31" s="42"/>
       <c r="D31" s="43"/>
       <c r="F31" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="23" t="s">

--- a/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
+++ b/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E647D5-DADF-48B6-BFE5-4C0CFA463EF4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D182D25D-4863-4EEC-AB01-4F32063B9F28}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,8 +1353,8 @@
   </sheetPr>
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>

--- a/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
+++ b/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D182D25D-4863-4EEC-AB01-4F32063B9F28}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD59C25-A5B0-45DE-9138-07D1F8D72B2D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="B1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>

--- a/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
+++ b/Slides/data/Aula-Pratica-AAS-Planilha-Analise-Semiautomatica-Exemplo-Sanquetta-et-al-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD59C25-A5B0-45DE-9138-07D1F8D72B2D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FBDD67E5-22CB-4132-A16F-019A20304AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4997762-07D9-46C8-BF26-91E2A5195C79}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,8 +1353,8 @@
   </sheetPr>
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
